--- a/biology/Zoologie/Coluber_flagellum/Coluber_flagellum.xlsx
+++ b/biology/Zoologie/Coluber_flagellum/Coluber_flagellum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coluber flagellum est une espèce de serpents de la famille des Colubridae[1]. C'est un serpent non-venimeux dont six sous-espèces sont reconnues.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coluber flagellum est une espèce de serpents de la famille des Colubridae. C'est un serpent non-venimeux dont six sous-espèces sont reconnues.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre dans le sud des États-Unis et dans la moitié nord du Mexique[1]. Typiquement, elle vit dans les habitats ouverts de type prairie, mais on peut également la trouver dans des régions faiblement boisées.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre dans le sud des États-Unis et dans la moitié nord du Mexique. Typiquement, elle vit dans les habitats ouverts de type prairie, mais on peut également la trouver dans des régions faiblement boisées.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coluber flagellum est un serpent au corps mince avec une petite tête et de grands yeux avec des pupilles rondes. Sa couleur varie fortement, mais dans la plupart des cas elle assure un camouflage adapté à son habitat naturel. Les adultes de plus de 160 cm de longueur ne sont pas rares. C'est une espèce ovipare.
 </t>
@@ -573,9 +589,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (3 septembre 2011)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (3 septembre 2011) :
 Coluber flagellum cingulum (Lowe &amp; Woodin, 1954)
 Coluber flagellum flagellum Shaw, 1802
 Coluber flagellum lineatulus (Smith, 1941) - État de Chihuahua au Mexique
@@ -609,10 +627,12 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a longtemps été nommée Masticophis flagellum, le genre Masticophis a été placé en synonymie avec Coluber par Utiger, Schatti et Helfenberger en 2005[3].
-La sous-espèce Coluber flagellum fuliginosus a été élevée au rang d'espèce[4].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a longtemps été nommée Masticophis flagellum, le genre Masticophis a été placé en synonymie avec Coluber par Utiger, Schatti et Helfenberger en 2005.
+La sous-espèce Coluber flagellum fuliginosus a été élevée au rang d'espèce.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Brattstrom &amp; Warren, 1953 : A new subspecies of racer, Masticophis flagellum, from the San Joaquin Valley of California. Herpetologica, vol. 9, p. 177.
 Cope, 1892 : A critical review of the characters and variations of the snakes of North America. Proceedings of the United States National Museum, vol. 14, p. 589-694 (texte intégral).
